--- a/centrality_measures.xlsx
+++ b/centrality_measures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henry/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudos\Dropbox\wos-ss-affiliations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A8889519-C15D-E144-ADCC-CE87C3DD4152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C0E017EA-2212-40B6-BFF2-290CB9A7004B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16000" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="3" r:id="rId1"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1100,19 +1100,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView zoomScale="192" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>8.0597601729899271E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>4.3247493611160426E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>7.1751523491252966E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>5.4845685079614015E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>3.1452722626310048E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>8.2759976410458014E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>2.6341655199527969E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>1.3760566149010334E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>1.9461372125023968E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>1.1598191468449037E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>2.9486927462159529E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>3.1452722626300056E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>1.1205032435620016E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>2.3589541969729899E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>2.5555337133870148E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>3.7350108118739955E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>2.5555337133869871E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>3.7350108118730241E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>7.8631806565759854E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>1.5726361313150028E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>1.3760566149000064E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>3.9315903282879927E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>9.8289758207201205E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>1.3760566149009779E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>1.9657951641399718E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>4.324749361117014E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>2.7521132298009843E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>2.3589541969730177E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>9.828975820719843E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>2.5555337133870148E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>4.3247493611169863E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>1.9657951641399718E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>4.324749361117014E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>2.1623746805579935E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>1.5726361313150028E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>1.1794770984860092E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>1.5726361313150028E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>7.8631806565798712E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>1.5726361313150028E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>3.9315903282899356E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>5.897385492430185E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>9.828975820719843E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>1.9657951641399718E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>9.8289758207201205E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>3.5384312954589991E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -1741,20 +1741,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView zoomScale="204" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>2.6907490581531995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>1.1044819718500354E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>6.2106199498680098E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>6.1788795820531955E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>1.450670445614391E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>5.706721172007094E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>4.6299246631119062E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>3.3586579346740197E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>1.5347105291883198E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>1.0805253878395059E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>1.0979272510178995E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>7.8838852870857963E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>1.9137431051385011E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>2.5256905966603363E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>2.8423033249733946E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>2.5997672562564061E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>3.0039200511889925E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>3.4136130504699037E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>7.9698186807989659E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>1.128774790089002E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>3.4586948720390087E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>3.3648908819334036E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>2.0911555865007949E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>1.1628082065967028E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>5.5840245288723981E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>1.5816873649014034E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>5.1764918512499716E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>1.5296564691112029E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>1.6474192432874976E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>1.671815169727699E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>2.5244002218440063E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>1.6371710965943026E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>1.7075197883235005E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>1.2575568258235996E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>4.4104631583600194E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>2.2882391565759962E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>1.046351570462966E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>2.074311638523901E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>3.4449948175680097E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>7.6054531593979652E-7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>8.9063084769670352E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>2.8968235451599933E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>3.7160716895909881E-5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>2.8592793152659897E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>1.8631316941259985E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>4.5452818125190069E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>3.1077192901469985E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>1.6115806806350167E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>2.4628945686549965E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>2.2400310912559914E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2386,21 +2386,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.5" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>1.5963838901062941E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>2.3280640468440611E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>7.2681454988995919E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>1.985789894460438E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>1.5399534805359688E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>1.1127589574200236E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>1.074989164455975E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>5.1125579299503288E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>1.7020099777956266E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>5.5943386611002899E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>7.6508543798495254E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>3.6474824160200037E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>9.2623884920262078E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>1.14932912702502E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>7.560491217329518E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>8.2307956174032526E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>1.7796216821699962E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>2.5126904909397729E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>4.1232861609404037E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>2.7615470213494808E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>2.5556161150006029E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>7.6039924512605328E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>1.1058061689939169E-7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>9.9728073794998207E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>4.8715369834896605E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>2.0450578266405228E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>8.9208780513196084E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>5.4776054632901805E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>6.5813189285300611E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>1.8894816402201253E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>2.9984141503985873E-6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>3.320767925760193E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>1.1174517476099377E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>4.0666445462897438E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>1.1809072485699512E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>1.13435029090031E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>2.6284317362998411E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>3.1368582929403033E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>2.0860497282199075E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>6.1598970080289916E-7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>1.8882274937799537E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>1.1083612592700798E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>2.6967901273398931E-5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>7.8512171339396863E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>1.3680456399656205E-8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>8.6171482827010482E-6</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>1.2204878485598536E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>1.7071662517999242E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>1.9454117786706082E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>2.3915872686963713E-6</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -3032,20 +3032,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>3.8134130510300013E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>2.0288901013569838E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>3.1991663357669009E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>2.2505335307332008E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>1.2436125661590136E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>3.1043983418175936E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>9.2472205113139916E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>4.7519863220102376E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>6.63933395330496E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>3.8858777043530024E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>9.7965841151603783E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>1.0413082153459818E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>3.6792534637519747E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>7.6858662907108855E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>8.3030476934797814E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>1.2091835043209764E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>8.2438229917303207E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>1.2005738825879853E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>2.510995043610964E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>4.9952951233001031E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>4.363628253529761E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>1.2430342159770458E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>3.0990124171803579E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>4.3328765737393748E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>6.1843640749015272E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>1.3571182924420055E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>8.6020646114604027E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>7.3521735450199355E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>3.0576972259199753E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>7.9343494522099434E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>1.3376043989760111E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>6.0647519026901797E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>1.3309029020390772E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>6.630624281859232E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>4.8123131645705364E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>3.6037461390903136E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>4.7976940134197843E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>2.3957241856897848E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>4.7852162685901867E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>1.1950076821598543E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>1.7915406037705139E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>2.9833146909896691E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>5.9627536889039767E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>2.9794413044492707E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>1.0699347471370135E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
